--- a/Veenkampen/misc/BADM-Instrument/VK-BADM-Instrument-v2020.xlsx
+++ b/Veenkampen/misc/BADM-Instrument/VK-BADM-Instrument-v2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\Veenkampen_archive\FLUXNET\Veenkampen\misc\BADM-Instrument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9497FDF-A5F0-476F-A499-85A37503B7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A959921-32AC-4124-81D3-B4D9EECE37B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="509">
   <si>
     <t>Variable</t>
   </si>
@@ -1450,13 +1450,112 @@
   </si>
   <si>
     <t>sjoerd.barten@wur.nl</t>
+  </si>
+  <si>
+    <t>Licor Li-7500 / Campbell CSAT3</t>
+  </si>
+  <si>
+    <t>HMT337</t>
+  </si>
+  <si>
+    <t>Kipp&amp;Zonen CM11 upgraded</t>
+  </si>
+  <si>
+    <t>Kipp&amp;Zonen SGR3 smart</t>
+  </si>
+  <si>
+    <t>Ott Pluvio S</t>
+  </si>
+  <si>
+    <t>Vaisala</t>
+  </si>
+  <si>
+    <t>WUR-MAQ, KNMI type</t>
+  </si>
+  <si>
+    <t>WindSonic 75</t>
+  </si>
+  <si>
+    <t>PT100 (atmosphere)</t>
+  </si>
+  <si>
+    <t>201401010000</t>
+  </si>
+  <si>
+    <t>Ventilated</t>
+  </si>
+  <si>
+    <t>Radiation;Rain (Stevenson hut)</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>U,V,W</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GA_OP-LI-COR LI-7500 / SA-Campbell CSAT-3</t>
+  </si>
+  <si>
+    <t>Hukseflux HFP01; Grass  + bare soil</t>
+  </si>
+  <si>
+    <t>PT100 (soil); Grass + bare soil</t>
+  </si>
+  <si>
+    <t>Campbell CS616; Grass + bare soil</t>
+  </si>
+  <si>
+    <t>Campbell CS420; Grass</t>
+  </si>
+  <si>
+    <t>30 / 258</t>
+  </si>
+  <si>
+    <t>VK_TEMP_1</t>
+  </si>
+  <si>
+    <t>VK_RH_1</t>
+  </si>
+  <si>
+    <t>VK_RAD_1</t>
+  </si>
+  <si>
+    <t>VK_RAD_2</t>
+  </si>
+  <si>
+    <t>VK_RAIN_1</t>
+  </si>
+  <si>
+    <t>VK_PRES_1</t>
+  </si>
+  <si>
+    <t>VK_WIND_1</t>
+  </si>
+  <si>
+    <t>VK_WIND_2</t>
+  </si>
+  <si>
+    <t>VK_WTD_1</t>
+  </si>
+  <si>
+    <t>VK_TEMP_2</t>
+  </si>
+  <si>
+    <t>VK_SOIL_H_1</t>
+  </si>
+  <si>
+    <t>VK_SWC_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,6 +1567,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1476,6 +1576,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1545,7 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1576,6 +1682,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1879,16 +1988,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +2037,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +2051,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +2065,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +2079,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1969,10 +2090,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="13">
-        <v>20250425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>20250502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1982,8 +2103,48 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1993,8 +2154,48 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2004,8 +2205,47 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2015,8 +2255,47 @@
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2026,8 +2305,47 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="J11" t="s">
+        <v>481</v>
+      </c>
+      <c r="K11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L11" t="s">
+        <v>483</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2037,8 +2355,21 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2048,8 +2379,47 @@
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2070,8 +2440,47 @@
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2081,8 +2490,47 @@
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" t="s">
+        <v>487</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>488</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2092,8 +2540,47 @@
       <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" t="s">
+        <v>486</v>
+      </c>
+      <c r="H17" t="s">
+        <v>486</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2103,8 +2590,45 @@
       <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>180</v>
+      </c>
+      <c r="H18" s="15">
+        <v>180</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2114,8 +2638,17 @@
       <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>489</v>
+      </c>
+      <c r="K19" t="s">
+        <v>489</v>
+      </c>
+      <c r="L19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2126,7 +2659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2136,8 +2669,9 @@
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -2148,7 +2682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2159,7 +2693,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2170,7 +2704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2181,7 +2715,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -2192,7 +2726,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -2203,7 +2737,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2213,8 +2747,9 @@
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2224,8 +2759,9 @@
       <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2235,8 +2771,18 @@
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2246,8 +2792,21 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+    </row>
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -2257,8 +2816,18 @@
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -2268,8 +2837,9 @@
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -2279,8 +2849,11 @@
       <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2290,8 +2863,11 @@
       <c r="C35" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -2302,7 +2878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2312,8 +2888,9 @@
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -2323,8 +2900,9 @@
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2334,6 +2912,7 @@
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2347,7 +2926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4253,7 +4834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Veenkampen/misc/BADM-Instrument/VK-BADM-Instrument-v2020.xlsx
+++ b/Veenkampen/misc/BADM-Instrument/VK-BADM-Instrument-v2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\Veenkampen_archive\FLUXNET\Veenkampen\misc\BADM-Instrument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A959921-32AC-4124-81D3-B4D9EECE37B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15F207-ADA1-4D96-BC85-721FB5610B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="508">
   <si>
     <t>Variable</t>
   </si>
@@ -1452,9 +1452,6 @@
     <t>sjoerd.barten@wur.nl</t>
   </si>
   <si>
-    <t>Licor Li-7500 / Campbell CSAT3</t>
-  </si>
-  <si>
     <t>HMT337</t>
   </si>
   <si>
@@ -1497,9 +1494,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>GA_OP-LI-COR LI-7500 / SA-Campbell CSAT-3</t>
-  </si>
-  <si>
     <t>Hukseflux HFP01; Grass  + bare soil</t>
   </si>
   <si>
@@ -1512,9 +1506,6 @@
     <t>Campbell CS420; Grass</t>
   </si>
   <si>
-    <t>30 / 258</t>
-  </si>
-  <si>
     <t>VK_TEMP_1</t>
   </si>
   <si>
@@ -1549,6 +1540,12 @@
   </si>
   <si>
     <t>VK_SWC_1</t>
+  </si>
+  <si>
+    <t>Campbell CSAT3</t>
+  </si>
+  <si>
+    <t>Licor Li-7500</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1581,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,12 +1628,6 @@
         <fgColor rgb="FFCBFFF7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1681,10 +1672,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1988,28 +1979,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,8 +2013,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2029,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2043,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2057,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2078,8 +2070,9 @@
       <c r="D5" s="12" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2089,11 +2082,12 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13">
-        <v>20250502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="14">
+        <v>20250521</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2103,48 +2097,51 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
         <v>307</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>281</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>267</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>271</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2154,48 +2151,51 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>258</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="O8" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="P8" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="Q8" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2205,47 +2205,50 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2294,8 +2297,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2305,47 +2311,50 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G11" t="s">
         <v>476</v>
       </c>
-      <c r="E11" t="s">
-        <v>484</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="K11" t="s">
         <v>480</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>482</v>
       </c>
-      <c r="L11" t="s">
-        <v>483</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q11" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="P11" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2355,21 +2364,50 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2382,9 +2420,6 @@
       <c r="D13">
         <v>0.05</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
         <v>1</v>
       </c>
@@ -2418,8 +2453,11 @@
       <c r="P13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2430,7 +2468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2443,9 +2481,6 @@
       <c r="D15" t="s">
         <v>118</v>
       </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
       <c r="F15" t="s">
         <v>118</v>
       </c>
@@ -2479,8 +2514,11 @@
       <c r="P15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2493,23 +2531,20 @@
       <c r="D16" t="s">
         <v>114</v>
       </c>
-      <c r="E16" t="s">
-        <v>487</v>
-      </c>
       <c r="F16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>486</v>
       </c>
       <c r="H16" t="s">
         <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>488</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>487</v>
       </c>
       <c r="K16" t="s">
         <v>114</v>
@@ -2529,8 +2564,11 @@
       <c r="P16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2543,20 +2581,17 @@
       <c r="D17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" t="s">
-        <v>114</v>
-      </c>
       <c r="F17" t="s">
         <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>486</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>485</v>
       </c>
       <c r="J17" t="s">
         <v>114</v>
@@ -2579,8 +2614,11 @@
       <c r="P17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2590,45 +2628,50 @@
       <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15">
+      <c r="D18" s="14">
+        <v>90</v>
+      </c>
+      <c r="E18" s="14">
+        <v>90</v>
+      </c>
+      <c r="F18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="14">
         <v>0</v>
       </c>
-      <c r="G18" s="15">
+      <c r="H18" s="14">
         <v>180</v>
       </c>
-      <c r="H18" s="15">
+      <c r="I18" s="14">
         <v>180</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2639,16 +2682,16 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>489</v>
-      </c>
-      <c r="K19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="M19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2659,7 +2702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2669,9 +2712,10 @@
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -2682,7 +2726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2693,7 +2737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2704,7 +2748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2715,7 +2759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -2726,7 +2770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -2737,7 +2781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2747,9 +2791,12 @@
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2759,9 +2806,12 @@
       <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2771,18 +2821,19 @@
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2792,21 +2843,24 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-    </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="14">
+        <v>30</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -2816,18 +2870,19 @@
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="16"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -2837,9 +2892,12 @@
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="14">
+        <v>258</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -2849,11 +2907,12 @@
       <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2867,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -2878,7 +2937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2888,9 +2947,12 @@
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="14">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -2900,9 +2962,12 @@
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2912,7 +2977,10 @@
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
